--- a/DFS/Projections.xlsx
+++ b/DFS/Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kpmgaust-my.sharepoint.com/personal/jhansen3_kpmg_com_au/Documents/Documents/Python/Gambling/DFS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="11_F25DC773A252ABDACC1048C4B1DC4D7C5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAF9A7E1-0748-43FC-899B-72E53A9E3592}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="11_F25DC773A252ABDACC1048C4B1DC4D7C5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35314589-560C-4E88-AA53-26311D12EDCC}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Player</t>
   </si>
@@ -48,88 +48,79 @@
     <t>High</t>
   </si>
   <si>
-    <t>Davante Adams</t>
-  </si>
-  <si>
-    <t>Josh Jacobs</t>
-  </si>
-  <si>
-    <t>Mack Hollins</t>
-  </si>
-  <si>
-    <t>Van Jefferson</t>
-  </si>
-  <si>
-    <t>Tyler Higbee</t>
-  </si>
-  <si>
-    <t>Cam Akers</t>
-  </si>
-  <si>
-    <t>Hunter Renfrow</t>
-  </si>
-  <si>
-    <t>Foster Moreau</t>
-  </si>
-  <si>
-    <t>Kyren Williams</t>
-  </si>
-  <si>
-    <t>Ben Skowronek</t>
-  </si>
-  <si>
-    <t>Brandon Powell</t>
-  </si>
-  <si>
-    <t>Tutu Atwell</t>
-  </si>
-  <si>
-    <t>Darren Waller</t>
-  </si>
-  <si>
-    <t>Keelan Cole Sr.</t>
-  </si>
-  <si>
-    <t>Ameer Abdullah</t>
-  </si>
-  <si>
-    <t>Lance McCutcheon</t>
-  </si>
-  <si>
-    <t>Brycen Hopkins</t>
-  </si>
-  <si>
-    <t>Jacob Hollister</t>
-  </si>
-  <si>
-    <t>Brittain Brown</t>
-  </si>
-  <si>
-    <t>Brandon Bolden</t>
-  </si>
-  <si>
-    <t>Jacob Harris</t>
-  </si>
-  <si>
-    <t>Zamir White</t>
-  </si>
-  <si>
-    <t>DJ Turner</t>
-  </si>
-  <si>
-    <t>Jakob Johnson</t>
-  </si>
-  <si>
-    <t>Las Vegas Raiders</t>
-  </si>
-  <si>
-    <t>Los Angeles Rams</t>
-  </si>
-  <si>
-    <t>Derek Carr</t>
-  </si>
-  <si>
-    <t>John Wolford</t>
+    <t>Rhamondre Stevenson</t>
+  </si>
+  <si>
+    <t>DeAndre Hopkins</t>
+  </si>
+  <si>
+    <t>James Conner</t>
+  </si>
+  <si>
+    <t>Marquise Brown</t>
+  </si>
+  <si>
+    <t>DeVante Parker</t>
+  </si>
+  <si>
+    <t>Hunter Henry</t>
+  </si>
+  <si>
+    <t>Greg Dortch</t>
+  </si>
+  <si>
+    <t>Nelson Agholor</t>
+  </si>
+  <si>
+    <t>Kendrick Bourne</t>
+  </si>
+  <si>
+    <t>Tyquan Thornton</t>
+  </si>
+  <si>
+    <t>Trey McBride</t>
+  </si>
+  <si>
+    <t>Jonnu Smith</t>
+  </si>
+  <si>
+    <t>Damien Harris</t>
+  </si>
+  <si>
+    <t>Robbie Anderson</t>
+  </si>
+  <si>
+    <t>Pierre Strong Jr.</t>
+  </si>
+  <si>
+    <t>A.J. Green</t>
+  </si>
+  <si>
+    <t>Kevin Harris</t>
+  </si>
+  <si>
+    <t>Keaontay Ingram</t>
+  </si>
+  <si>
+    <t>Corey Clement</t>
+  </si>
+  <si>
+    <t>Matthew Slater</t>
+  </si>
+  <si>
+    <t>Raleigh Webb</t>
+  </si>
+  <si>
+    <t>Kyler Murray</t>
+  </si>
+  <si>
+    <t>Mac Jones</t>
+  </si>
+  <si>
+    <t>New England Patriots</t>
+  </si>
+  <si>
+    <t>Arizona Cardinals</t>
   </si>
 </sst>
 </file>
@@ -447,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>20.5</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="C2">
-        <v>23.7</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -485,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>18.8</v>
+        <v>16.2</v>
       </c>
       <c r="C3">
-        <v>20.7</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -496,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>9.4</v>
+        <v>14.5</v>
       </c>
       <c r="C4">
-        <v>11.7</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -507,10 +498,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>9.1</v>
+        <v>12.2</v>
       </c>
       <c r="C5">
-        <v>10.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -518,10 +509,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>10.1</v>
       </c>
       <c r="C6">
-        <v>10.3</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -529,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="C7">
-        <v>9.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -540,10 +531,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>8.1999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="C8">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -551,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>7.7</v>
-      </c>
-      <c r="C9">
-        <v>10.1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -562,10 +553,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="C10">
-        <v>8.6999999999999993</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -573,10 +564,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>7.1</v>
+        <v>4.7</v>
       </c>
       <c r="C11">
-        <v>8.5</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -584,10 +575,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>6.9</v>
+        <v>4.5</v>
       </c>
       <c r="C12">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -595,10 +586,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>6.1</v>
+        <v>4.3</v>
       </c>
       <c r="C13">
-        <v>7.2</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -606,10 +597,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -617,10 +608,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="C15">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -628,10 +619,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="C16">
-        <v>5.6</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -639,10 +630,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="C17">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -650,10 +641,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="C18">
-        <v>2.7</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -661,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="C19">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -672,10 +663,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="C20">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -683,10 +674,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -694,10 +685,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="C22">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -705,10 +696,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>1.1000000000000001</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C23">
-        <v>1.4</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -716,10 +707,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.6</v>
+        <v>15.7</v>
       </c>
       <c r="C24">
-        <v>0.6</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -727,10 +718,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0.6</v>
+        <v>7.8</v>
       </c>
       <c r="C25">
-        <v>0.7</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -738,43 +729,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="C26">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>5.8</v>
-      </c>
-      <c r="C27">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>16.7</v>
-      </c>
-      <c r="C28">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>13.2</v>
-      </c>
-      <c r="C29">
-        <v>13.4</v>
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>
